--- a/xls/AVČR-Ústav pro českou literaturu AV ČR, v. v. i._Local.xlsx
+++ b/xls/AVČR-Ústav pro českou literaturu AV ČR, v. v. i._Local.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="189">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,45 +73,300 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>Jsc</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
-    <t>Jsc</t>
+    <t>Antošíková, Lucie, 8164266</t>
+  </si>
+  <si>
+    <t>Piorecký, Karel, 3891763</t>
+  </si>
+  <si>
+    <t>Šidák, Pavel, 3784762</t>
+  </si>
+  <si>
+    <t>Malínek, Vojtěch, 7382642</t>
+  </si>
+  <si>
+    <t>Janoušek, Pavel, 1244744</t>
+  </si>
+  <si>
+    <t>Merenus, Aleš, 6619134</t>
   </si>
   <si>
     <t>Fořt, Bohumil, 7125658</t>
   </si>
   <si>
+    <t>Plecháč, Petr, 8755086; Kolár, Robert, 8859442</t>
+  </si>
+  <si>
+    <t>Rejzlová, Vendula, 9788107</t>
+  </si>
+  <si>
+    <t>Petrbok, Václav, 2576929</t>
+  </si>
+  <si>
+    <t>Říha, Jakub, 3933962</t>
+  </si>
+  <si>
+    <t>Andrle, Jan, 9580174</t>
+  </si>
+  <si>
+    <t>Dobiáš, Dalibor, 4330579</t>
+  </si>
+  <si>
+    <t>Kosák, Michal, 4296184; Flaišman, Jiří, 5614457</t>
+  </si>
+  <si>
+    <t>Jedličková, Alice, 3230864</t>
+  </si>
+  <si>
+    <t>Jungmannová, Lenka, 5209102</t>
+  </si>
+  <si>
+    <t>Müller, Richard, 2244896</t>
+  </si>
+  <si>
+    <t>Plecháč, Petr, 8755086</t>
+  </si>
+  <si>
+    <t>Malá, Zuzana, 5025672</t>
+  </si>
+  <si>
+    <t>Davidová, Eliška, 4695739; Havránková, Marie, 8849625; Jareš, Michal, 8997004; Píša, Petr, 4910788; Wögerbauer, Michael</t>
+  </si>
+  <si>
     <t>Ibrahim, Robert, 8859442</t>
   </si>
   <si>
     <t>Kudlová, Klára, 6099963</t>
   </si>
   <si>
-    <t>Petrbok, Václav, 2576929</t>
-  </si>
-  <si>
-    <t>Piorecký, Karel, 3891763</t>
+    <t>Košnarová, Veronika, 8079463</t>
+  </si>
+  <si>
+    <t>Iwashita, Daniela, 9917152</t>
+  </si>
+  <si>
+    <t>Sládek, Ondřej, 3483940</t>
+  </si>
+  <si>
+    <t>Charypar, Michal, 4843460</t>
+  </si>
+  <si>
+    <t>Řehák, Daniel, 3027465</t>
+  </si>
+  <si>
+    <t>Kanda, Roman, 3526100</t>
+  </si>
+  <si>
+    <t>Soukup, Daniel, 2187213</t>
+  </si>
+  <si>
+    <t>Flanderka, Jakub, 7655614</t>
+  </si>
+  <si>
+    <t>Kořínková, Lucie, 7922507</t>
+  </si>
+  <si>
+    <t>Hrdina, Martin, 4784936</t>
+  </si>
+  <si>
+    <t>Kubíček, Tomáš, 7486707</t>
+  </si>
+  <si>
+    <t>Matonoha, Jan, 3170349</t>
+  </si>
+  <si>
+    <t>Holanová, Markéta, 2071916</t>
+  </si>
+  <si>
+    <t>Přibáňová, Alena, 4055853</t>
+  </si>
+  <si>
+    <t>Jaluška, Matouš, 2778181</t>
+  </si>
+  <si>
+    <t>Burget, Eduard, 9997105</t>
+  </si>
+  <si>
+    <t>Piorecká, Kateřina, 9167617</t>
+  </si>
+  <si>
+    <t>Der Österreich-Spiegel? ? Jiří Grušas Essays Beneš als Österreicher und die Gebrauchsanweisung für Tschechien und Prag als Beispiele transkulturellen essayistischen Schreibens</t>
+  </si>
+  <si>
+    <t>Česká literatura a nová média. Prolegomena k tématu</t>
+  </si>
+  <si>
+    <t>Transformace folklorní látky v umělecké literatuře : případ démonologické pověsti a díla K. V. Raise</t>
+  </si>
+  <si>
+    <t>Retrospektivní bibliografie české literatury 1770-1945</t>
+  </si>
+  <si>
+    <t>RETROBI - Digitalizovaná Retrospektivní bibliografie české literatury 1770-1945 a možnosti jejího využití pro literárněvědný výzkum</t>
+  </si>
+  <si>
+    <t>Paměť historie a odvaha k Dějinám</t>
+  </si>
+  <si>
+    <t>Dva texty dramatu a projektovaný inscenátor</t>
   </si>
   <si>
     <t>Transduction as an alternative to intertextuality in the realm of fictional worlds</t>
   </si>
   <si>
+    <t>Databáze českých meter a výzkum českého verše 19. století</t>
+  </si>
+  <si>
+    <t>K tzv. Dominikánovi a českým dominikánům doby Karlovy</t>
+  </si>
+  <si>
+    <t>Ferdinand Břetislav Mikovec jako přispěvatel Die Grenzboten und Wiener Zeitung</t>
+  </si>
+  <si>
+    <t>Rytmická stránka Nerudova rýmu</t>
+  </si>
+  <si>
+    <t>Česká národní retrospektivní bibliografie jako pomůcka a výzva pro literární historii</t>
+  </si>
+  <si>
+    <t>Počátkové českého básnictví a německá metrika. K proměnám českého verše v nadnárodním kontextu</t>
+  </si>
+  <si>
+    <t>K dnešním snahám o vydání díla Jakuba Demla</t>
+  </si>
+  <si>
+    <t>O předmětu, metodě a zájmech naratologie</t>
+  </si>
+  <si>
+    <t>Dramatika Václava Havla a transtextovost</t>
+  </si>
+  <si>
+    <t>Historie v uvozovkách: Pár poznámek k myšlení Marjorie Garberové</t>
+  </si>
+  <si>
+    <t>Miroslav Červenka a generativní model metrické normy českého sylabotónického verše</t>
+  </si>
+  <si>
+    <t>Rozrůzněná avantgarda. Poznámky ke vztahu expresionismu a avantgardy v českém kontextu</t>
+  </si>
+  <si>
+    <t>Retrospektivní bibliografie v Německu, Rakousku, Polsku a na Slovensku</t>
+  </si>
+  <si>
     <t>Semantika metra v poezii Miroslava Červenky</t>
   </si>
   <si>
     <t>Postavy, novinářské texty a jejich emblémy (v psaní Terezy Boučkové)</t>
   </si>
   <si>
+    <t>Pařížská léta Otty Mizery. Několik drobných poznámek</t>
+  </si>
+  <si>
+    <t>Masky touhy: úvaha ajvazovská</t>
+  </si>
+  <si>
+    <t>Korespondence Jakuba Demla na pomezí dokumentu a básnického textu: Poznámky a dilemata z průběžné ediční přípravy</t>
+  </si>
+  <si>
+    <t>Proměnné a konstanty v díle Lubomíra Doležela aneb Stručná bilance před výročím</t>
+  </si>
+  <si>
     <t>David Kuh and Jan Neruda</t>
   </si>
   <si>
+    <t>"Národ nezná odpuštění". Expatriace Karla Sabiny v srpnu 1872</t>
+  </si>
+  <si>
+    <t>Býti ismuistou! Juvenilní básnická tvorba Vladimíra Macury</t>
+  </si>
+  <si>
+    <t>K historii a struktuře Retrospektivní bibliografie</t>
+  </si>
+  <si>
+    <t>K estetickému myšlení Roberta Kalivody. Kapitola z archeologie českého marxismu</t>
+  </si>
+  <si>
+    <t>Staročeská fotoarchivní sbírka. Historie, současný stav a význam</t>
+  </si>
+  <si>
+    <t>Jak to bylo s Motýlem na anténě?</t>
+  </si>
+  <si>
+    <t>Strojopis Prometheových jater z textologické perspektivy</t>
+  </si>
+  <si>
+    <t>Latinské a české verše o pražském pogromu roku 1389. Ke dvěma pozapomenutým žákovským skladbám</t>
+  </si>
+  <si>
+    <t>Iniciační cesta na Jih : příspěvek k intertextové interpretaci Holanovy Toskány</t>
+  </si>
+  <si>
+    <t>Hrabákův Úvod do teorie verše a jeho místo v dějinách české versologie</t>
+  </si>
+  <si>
+    <t>František Gellner si za ženu vezme gorilu</t>
+  </si>
+  <si>
+    <t>Realismus v české literatuře 19. století. Pohledy současníků, historické interpretace a badatelské perspektivy</t>
+  </si>
+  <si>
+    <t>"Uděláme Prahu hlavním městem střední Evropy". Časopis Den a jeho role při formování české meziválečné avantgardy</t>
+  </si>
+  <si>
+    <t>Druhý Čep</t>
+  </si>
+  <si>
     <t>Doleželovy fikční světy</t>
   </si>
   <si>
+    <t>Obrat k matérii a afektu. A jeho problémy</t>
+  </si>
+  <si>
     <t>Romány na pokračování v situaci digitálního zveřejnění</t>
   </si>
   <si>
+    <t>Milada Součková a časopis The Booster/Delta</t>
+  </si>
+  <si>
+    <t>Zatčení Jiřího Koláře v roce 1953 - edice dokumentů</t>
+  </si>
+  <si>
+    <t>Počátky Konce nylonového věku aneb Smutek v zemi socialismu</t>
+  </si>
+  <si>
+    <t>Literatura a digitální kultura: Potřebujeme digital literary studies?</t>
+  </si>
+  <si>
+    <t>Myšlení ve fragmentech. Španělská literárněvědná esejistika a Claudio Guillén</t>
+  </si>
+  <si>
+    <t>Ukrutnost knížete Boleslava. Drama Františka Zavřela o počátcích české státnosti</t>
+  </si>
+  <si>
+    <t>Text v hmotném světě: událost psaní a česká literární kultura</t>
+  </si>
+  <si>
+    <t>1802-6419</t>
+  </si>
+  <si>
+    <t>0009-0468</t>
+  </si>
+  <si>
+    <t>0862-5409</t>
+  </si>
+  <si>
     <t>0037-7031</t>
   </si>
   <si>
@@ -127,6 +382,15 @@
     <t>0015-1831</t>
   </si>
   <si>
+    <t>Aussiger Beiträge</t>
+  </si>
+  <si>
+    <t>Česká literatura</t>
+  </si>
+  <si>
+    <t>Divadelní revue</t>
+  </si>
+  <si>
     <t>Slovo a slovesnost</t>
   </si>
   <si>
@@ -145,24 +409,162 @@
     <t>1 - SPOLEČENSKÉ, HUMANITNÍ a UMĚLECKÉ VĚDY -  SHVa</t>
   </si>
   <si>
+    <t>02f3fa1b8aa1ab73516dc10cc008f89ab4ca8ad0</t>
+  </si>
+  <si>
+    <t>08e422e07e170dc106bab27c9fc0c27b12e5cda7</t>
+  </si>
+  <si>
+    <t>0a8eb143c25fbe075483840598f4b4bd1af730b0</t>
+  </si>
+  <si>
+    <t>103b034c25f9782d791016517741cdda6a7f1ade</t>
+  </si>
+  <si>
+    <t>139c3f8f375b85a34e8b59d4ff93b8056439ded8</t>
+  </si>
+  <si>
+    <t>1771ca7866373bebf9a1776cf53abe40a6909dcf</t>
+  </si>
+  <si>
+    <t>19e0e0eeb71ecbe37347d4c1c4419109dba4431b</t>
+  </si>
+  <si>
     <t>1e618f50a6ed5285269e4f59f26b91bbbee24085</t>
   </si>
   <si>
+    <t>202ba6d400de3de9fd92321e4e7d111374b10cd7</t>
+  </si>
+  <si>
+    <t>2373f74fac7247337ce920f1e1c62d92b3258fe7</t>
+  </si>
+  <si>
+    <t>24aa0f867ee1314b3e7c83939697d9fabf46f47a</t>
+  </si>
+  <si>
+    <t>298c4a09245f60304722a4df6f6ceb8e1c720e19</t>
+  </si>
+  <si>
+    <t>2aff284acc23057b13a969e7c0a24a009afbdab5</t>
+  </si>
+  <si>
+    <t>2f6b30745cacf6756d5b3984c27b79e8d8a0f6a0</t>
+  </si>
+  <si>
+    <t>33f54f7dc0d11c2711183de1abd61b004c5a87a8</t>
+  </si>
+  <si>
+    <t>34f1a7563e2de60b243377de83dced94c0bb4bbc</t>
+  </si>
+  <si>
+    <t>378ac1b2d309073517f5758f6524476c4c85c7e7</t>
+  </si>
+  <si>
+    <t>4c36b7a4e6517c76cb20818891a1aeb11f157cf9</t>
+  </si>
+  <si>
+    <t>4c7066220cb0923f9f55dd3d0f58bfe07239d174</t>
+  </si>
+  <si>
+    <t>4d9b9a037c297e67b866b124615fc04fcea6d974</t>
+  </si>
+  <si>
+    <t>5deaee6e3d46f6f36b887b4a42988d62af5d22a1</t>
+  </si>
+  <si>
     <t>618dfb7db0f514f7bf68138e039a815ac3413755</t>
   </si>
   <si>
     <t>6218717915ff9ed75851db9481aaf89e63a8b71a</t>
   </si>
   <si>
+    <t>65661526ac30c5f5963a018d68edd1b838c4addc</t>
+  </si>
+  <si>
+    <t>6b548cea7e0db03df2952c74400cfb78d611979e</t>
+  </si>
+  <si>
+    <t>6b554cbba90fa12e237f5f104641cbd2878e6474</t>
+  </si>
+  <si>
+    <t>6c0fe1f8ce4c2ff65b53b89373ee2c5cdadc1fe6</t>
+  </si>
+  <si>
     <t>769138a80766f18e4e6b9da22f861e9c1e6dae3d</t>
   </si>
   <si>
+    <t>8cd3be2b562c472e4271085e6f303ba1984f015d</t>
+  </si>
+  <si>
+    <t>9526d3871fc51667d9a0fb65c345665bdcce0288</t>
+  </si>
+  <si>
+    <t>9ac0ee7c5e9f597850c8d43efa2c9affbc144731</t>
+  </si>
+  <si>
+    <t>a1e560491e3b8d3df700f92ea2887755a7a4b019</t>
+  </si>
+  <si>
+    <t>a7041e05af6a4066a92807f7d4f47c7f96995ecd</t>
+  </si>
+  <si>
+    <t>aa8bc1f614b79d46a302b71a7f7d8edd2506b2bd</t>
+  </si>
+  <si>
+    <t>aed7a70196affee657d29afc84e107c6d502a094</t>
+  </si>
+  <si>
+    <t>b1c92a7d5309b1cd349149d2f64d7a60a51975db</t>
+  </si>
+  <si>
+    <t>b3d1d3a6e071126c28f0093f1162ff4fcd95f298</t>
+  </si>
+  <si>
+    <t>ba794a3b65b42becbe55daa48f177bb79fd17bbe</t>
+  </si>
+  <si>
+    <t>bebda9680175d7024a013b6053d3f86c54add1b9</t>
+  </si>
+  <si>
+    <t>bf64ae70d7fc6cdbd16f6a8c4ff81104508404b9</t>
+  </si>
+  <si>
+    <t>c550e97263db80b67fa006db78a0cd0288e0b251</t>
+  </si>
+  <si>
+    <t>ce21a08d0c8412c54176287ad0f411eee7be157d</t>
+  </si>
+  <si>
     <t>d0885a5ad757337de01d1cac0058edc3d948d0b2</t>
   </si>
   <si>
+    <t>d411671032072f3dc102821058b18c6a54d845e4</t>
+  </si>
+  <si>
     <t>e128f57faa3f422545e26c64e50b2bc97d7446b0</t>
   </si>
   <si>
+    <t>e17619aab115867b1b9b0711a026b8121da25968</t>
+  </si>
+  <si>
+    <t>e350da0f83ca9332688316cd4ddb32911bd9d936</t>
+  </si>
+  <si>
+    <t>e78984d5d67574499cfccee0a9cd22c3720ad962</t>
+  </si>
+  <si>
+    <t>ec54351c64bda8e13ea0d7256be32abb72a39aaa</t>
+  </si>
+  <si>
+    <t>f47a7ce344f81be0450492977eecf8af67072a62</t>
+  </si>
+  <si>
+    <t>fa93b3e0d57dd675ad110ec45e17627a89d45f17</t>
+  </si>
+  <si>
+    <t>fdd019b6b8558ecd10e2d889eed9927386877bcd</t>
+  </si>
+  <si>
     <t>Ústav pro českou literaturu AV ČR, v. v. i.</t>
   </si>
   <si>
@@ -173,6 +575,12 @@
   </si>
   <si>
     <t>AVČR-Ústav pro českou literaturu AV ČR, v. v. i.</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -530,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +949,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,305 +1007,2923 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>0.40000001</v>
+      </c>
+      <c r="D2">
+        <v>4.4068646</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2">
+        <v>68378068</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>13.172</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3">
+        <v>68378068</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9.0322981</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4">
+        <v>68378068</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>185</v>
+      </c>
+      <c r="R4" t="s">
+        <v>186</v>
+      </c>
+      <c r="S4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>58.370998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5">
+        <v>68378068</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" t="s">
+        <v>186</v>
+      </c>
+      <c r="T5" t="s">
+        <v>187</v>
+      </c>
+      <c r="U5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>2013</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>58.370998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" t="s">
+        <v>184</v>
+      </c>
+      <c r="P6">
+        <v>68378068</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S6" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" t="s">
+        <v>187</v>
+      </c>
+      <c r="U6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10.692</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7">
+        <v>68378068</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" t="s">
+        <v>187</v>
+      </c>
+      <c r="U7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10.692</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O8" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8">
+        <v>68378068</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>185</v>
+      </c>
+      <c r="R8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S8" t="s">
+        <v>186</v>
+      </c>
+      <c r="T8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>16.018999</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9">
+        <v>68378068</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>185</v>
+      </c>
+      <c r="R9" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" t="s">
+        <v>187</v>
+      </c>
+      <c r="U9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9.0322981</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10">
+        <v>68378068</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>185</v>
+      </c>
+      <c r="R10" t="s">
+        <v>186</v>
+      </c>
+      <c r="S10" t="s">
+        <v>186</v>
+      </c>
+      <c r="T10" t="s">
+        <v>187</v>
+      </c>
+      <c r="U10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>9.0322981</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11">
+        <v>68378068</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>185</v>
+      </c>
+      <c r="R11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" t="s">
+        <v>186</v>
+      </c>
+      <c r="T11" t="s">
+        <v>187</v>
+      </c>
+      <c r="U11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>10.324594</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" t="s">
+        <v>184</v>
+      </c>
+      <c r="P12">
+        <v>68378068</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>185</v>
+      </c>
+      <c r="R12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>13.172</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13">
+        <v>68378068</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>185</v>
+      </c>
+      <c r="R13" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" t="s">
+        <v>186</v>
+      </c>
+      <c r="T13" t="s">
+        <v>187</v>
+      </c>
+      <c r="U13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>13.172</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>183</v>
+      </c>
+      <c r="O14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14">
+        <v>68378068</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>185</v>
+      </c>
+      <c r="R14" t="s">
+        <v>186</v>
+      </c>
+      <c r="S14" t="s">
+        <v>186</v>
+      </c>
+      <c r="T14" t="s">
+        <v>187</v>
+      </c>
+      <c r="U14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>13.172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" t="s">
+        <v>184</v>
+      </c>
+      <c r="P15">
+        <v>68378068</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>185</v>
+      </c>
+      <c r="R15" t="s">
+        <v>186</v>
+      </c>
+      <c r="S15" t="s">
+        <v>186</v>
+      </c>
+      <c r="T15" t="s">
+        <v>187</v>
+      </c>
+      <c r="U15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>13.172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>183</v>
+      </c>
+      <c r="O16" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16">
+        <v>68378068</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>185</v>
+      </c>
+      <c r="R16" t="s">
+        <v>186</v>
+      </c>
+      <c r="S16" t="s">
+        <v>186</v>
+      </c>
+      <c r="T16" t="s">
+        <v>187</v>
+      </c>
+      <c r="U16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>13.172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>184</v>
+      </c>
+      <c r="P17">
+        <v>68378068</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>185</v>
+      </c>
+      <c r="R17" t="s">
+        <v>186</v>
+      </c>
+      <c r="S17" t="s">
+        <v>186</v>
+      </c>
+      <c r="T17" t="s">
+        <v>187</v>
+      </c>
+      <c r="U17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>10.324594</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18">
+        <v>68378068</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>185</v>
+      </c>
+      <c r="R18" t="s">
+        <v>186</v>
+      </c>
+      <c r="S18" t="s">
+        <v>186</v>
+      </c>
+      <c r="T18" t="s">
+        <v>187</v>
+      </c>
+      <c r="U18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>13.172</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>184</v>
+      </c>
+      <c r="P19">
+        <v>68378068</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>185</v>
+      </c>
+      <c r="R19" t="s">
+        <v>186</v>
+      </c>
+      <c r="S19" t="s">
+        <v>186</v>
+      </c>
+      <c r="T19" t="s">
+        <v>187</v>
+      </c>
+      <c r="U19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>13.172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P20">
+        <v>68378068</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R20" t="s">
+        <v>186</v>
+      </c>
+      <c r="S20" t="s">
+        <v>186</v>
+      </c>
+      <c r="T20" t="s">
+        <v>187</v>
+      </c>
+      <c r="U20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>58.370998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21">
+        <v>68378068</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>185</v>
+      </c>
+      <c r="R21" t="s">
+        <v>186</v>
+      </c>
+      <c r="S21" t="s">
+        <v>186</v>
+      </c>
+      <c r="T21" t="s">
+        <v>187</v>
+      </c>
+      <c r="U21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>2013</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>58.370998</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22">
+        <v>68378068</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>185</v>
+      </c>
+      <c r="R22" t="s">
+        <v>186</v>
+      </c>
+      <c r="S22" t="s">
+        <v>186</v>
+      </c>
+      <c r="T22" t="s">
+        <v>187</v>
+      </c>
+      <c r="U22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>11.017161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23">
+        <v>68378068</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>185</v>
+      </c>
+      <c r="R23" t="s">
+        <v>186</v>
+      </c>
+      <c r="S23" t="s">
+        <v>186</v>
+      </c>
+      <c r="T23" t="s">
+        <v>187</v>
+      </c>
+      <c r="U23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>2011</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>11.08</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>184</v>
+      </c>
+      <c r="P24">
+        <v>68378068</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>185</v>
+      </c>
+      <c r="R24" t="s">
+        <v>186</v>
+      </c>
+      <c r="S24" t="s">
+        <v>186</v>
+      </c>
+      <c r="T24" t="s">
+        <v>187</v>
+      </c>
+      <c r="U24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>11.017161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25">
+        <v>68378068</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" t="s">
+        <v>186</v>
+      </c>
+      <c r="S25" t="s">
+        <v>186</v>
+      </c>
+      <c r="T25" t="s">
+        <v>187</v>
+      </c>
+      <c r="U25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>13.172</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26">
+        <v>68378068</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>185</v>
+      </c>
+      <c r="R26" t="s">
+        <v>186</v>
+      </c>
+      <c r="S26" t="s">
+        <v>186</v>
+      </c>
+      <c r="T26" t="s">
+        <v>187</v>
+      </c>
+      <c r="U26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>11.017161</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P27">
+        <v>68378068</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>185</v>
+      </c>
+      <c r="R27" t="s">
+        <v>186</v>
+      </c>
+      <c r="S27" t="s">
+        <v>186</v>
+      </c>
+      <c r="T27" t="s">
+        <v>187</v>
+      </c>
+      <c r="U27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>13.172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" t="s">
+        <v>183</v>
+      </c>
+      <c r="O28" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28">
+        <v>68378068</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>185</v>
+      </c>
+      <c r="R28" t="s">
+        <v>186</v>
+      </c>
+      <c r="S28" t="s">
+        <v>186</v>
+      </c>
+      <c r="T28" t="s">
+        <v>187</v>
+      </c>
+      <c r="U28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>2011</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>13.296</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" t="s">
+        <v>183</v>
+      </c>
+      <c r="O29" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29">
+        <v>68378068</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>185</v>
+      </c>
+      <c r="R29" t="s">
+        <v>186</v>
+      </c>
+      <c r="S29" t="s">
+        <v>186</v>
+      </c>
+      <c r="T29" t="s">
+        <v>187</v>
+      </c>
+      <c r="U29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>48.285629</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" t="s">
+        <v>183</v>
+      </c>
+      <c r="O30" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30">
+        <v>68378068</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>185</v>
+      </c>
+      <c r="R30" t="s">
+        <v>186</v>
+      </c>
+      <c r="S30" t="s">
+        <v>186</v>
+      </c>
+      <c r="T30" t="s">
+        <v>187</v>
+      </c>
+      <c r="U30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <v>2013</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>58.370998</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" t="s">
+        <v>183</v>
+      </c>
+      <c r="O31" t="s">
+        <v>184</v>
+      </c>
+      <c r="P31">
+        <v>68378068</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>185</v>
+      </c>
+      <c r="R31" t="s">
+        <v>186</v>
+      </c>
+      <c r="S31" t="s">
+        <v>186</v>
+      </c>
+      <c r="T31" t="s">
+        <v>187</v>
+      </c>
+      <c r="U31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <v>2013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>58.370998</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" t="s">
+        <v>183</v>
+      </c>
+      <c r="O32" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32">
+        <v>68378068</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>185</v>
+      </c>
+      <c r="R32" t="s">
+        <v>186</v>
+      </c>
+      <c r="S32" t="s">
+        <v>186</v>
+      </c>
+      <c r="T32" t="s">
+        <v>187</v>
+      </c>
+      <c r="U32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>2014</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>11.017161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" t="s">
+        <v>183</v>
+      </c>
+      <c r="O33" t="s">
+        <v>184</v>
+      </c>
+      <c r="P33">
+        <v>68378068</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>185</v>
+      </c>
+      <c r="R33" t="s">
+        <v>186</v>
+      </c>
+      <c r="S33" t="s">
+        <v>186</v>
+      </c>
+      <c r="T33" t="s">
+        <v>187</v>
+      </c>
+      <c r="U33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>48.285629</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" t="s">
+        <v>183</v>
+      </c>
+      <c r="O34" t="s">
+        <v>184</v>
+      </c>
+      <c r="P34">
+        <v>68378068</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>185</v>
+      </c>
+      <c r="R34" t="s">
+        <v>186</v>
+      </c>
+      <c r="S34" t="s">
+        <v>186</v>
+      </c>
+      <c r="T34" t="s">
+        <v>187</v>
+      </c>
+      <c r="U34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35">
+        <v>2015</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>10.324594</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O35" t="s">
+        <v>184</v>
+      </c>
+      <c r="P35">
+        <v>68378068</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>185</v>
+      </c>
+      <c r="R35" t="s">
+        <v>186</v>
+      </c>
+      <c r="S35" t="s">
+        <v>186</v>
+      </c>
+      <c r="T35" t="s">
+        <v>187</v>
+      </c>
+      <c r="U35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36">
+        <v>2013</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>58.370998</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L36" t="s">
+        <v>183</v>
+      </c>
+      <c r="O36" t="s">
+        <v>184</v>
+      </c>
+      <c r="P36">
+        <v>68378068</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>185</v>
+      </c>
+      <c r="R36" t="s">
+        <v>186</v>
+      </c>
+      <c r="S36" t="s">
+        <v>186</v>
+      </c>
+      <c r="T36" t="s">
+        <v>187</v>
+      </c>
+      <c r="U36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>13.172</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" t="s">
+        <v>166</v>
+      </c>
+      <c r="L37" t="s">
+        <v>183</v>
+      </c>
+      <c r="O37" t="s">
+        <v>184</v>
+      </c>
+      <c r="P37">
+        <v>68378068</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>185</v>
+      </c>
+      <c r="R37" t="s">
+        <v>186</v>
+      </c>
+      <c r="S37" t="s">
+        <v>186</v>
+      </c>
+      <c r="T37" t="s">
+        <v>187</v>
+      </c>
+      <c r="U37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>2015</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>9.0322981</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" t="s">
+        <v>183</v>
+      </c>
+      <c r="O38" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38">
+        <v>68378068</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>185</v>
+      </c>
+      <c r="R38" t="s">
+        <v>186</v>
+      </c>
+      <c r="S38" t="s">
+        <v>186</v>
+      </c>
+      <c r="T38" t="s">
+        <v>187</v>
+      </c>
+      <c r="U38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>13.172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" t="s">
+        <v>183</v>
+      </c>
+      <c r="O39" t="s">
+        <v>184</v>
+      </c>
+      <c r="P39">
+        <v>68378068</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>185</v>
+      </c>
+      <c r="R39" t="s">
+        <v>186</v>
+      </c>
+      <c r="S39" t="s">
+        <v>186</v>
+      </c>
+      <c r="T39" t="s">
+        <v>187</v>
+      </c>
+      <c r="U39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>11.017161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" t="s">
+        <v>183</v>
+      </c>
+      <c r="O40" t="s">
+        <v>184</v>
+      </c>
+      <c r="P40">
+        <v>68378068</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>185</v>
+      </c>
+      <c r="R40" t="s">
+        <v>186</v>
+      </c>
+      <c r="S40" t="s">
+        <v>186</v>
+      </c>
+      <c r="T40" t="s">
+        <v>187</v>
+      </c>
+      <c r="U40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>2014</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>48.285629</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" t="s">
+        <v>183</v>
+      </c>
+      <c r="O41" t="s">
+        <v>184</v>
+      </c>
+      <c r="P41">
+        <v>68378068</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>185</v>
+      </c>
+      <c r="R41" t="s">
+        <v>186</v>
+      </c>
+      <c r="S41" t="s">
+        <v>186</v>
+      </c>
+      <c r="T41" t="s">
+        <v>187</v>
+      </c>
+      <c r="U41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>2012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>13.172</v>
+      </c>
+      <c r="E42" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2">
-        <v>68378068</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" t="s">
+        <v>183</v>
+      </c>
+      <c r="O42" t="s">
+        <v>184</v>
+      </c>
+      <c r="P42">
+        <v>68378068</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>185</v>
+      </c>
+      <c r="R42" t="s">
+        <v>186</v>
+      </c>
+      <c r="S42" t="s">
+        <v>186</v>
+      </c>
+      <c r="T42" t="s">
+        <v>187</v>
+      </c>
+      <c r="U42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
         <v>2014</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>48.285629</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
+        <v>172</v>
+      </c>
+      <c r="L43" t="s">
+        <v>183</v>
+      </c>
+      <c r="O43" t="s">
+        <v>184</v>
+      </c>
+      <c r="P43">
+        <v>68378068</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>185</v>
+      </c>
+      <c r="R43" t="s">
+        <v>186</v>
+      </c>
+      <c r="S43" t="s">
+        <v>186</v>
+      </c>
+      <c r="T43" t="s">
+        <v>187</v>
+      </c>
+      <c r="U43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>2012</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>124.571</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" t="s">
+        <v>173</v>
+      </c>
+      <c r="L44" t="s">
+        <v>183</v>
+      </c>
+      <c r="O44" t="s">
+        <v>184</v>
+      </c>
+      <c r="P44">
+        <v>68378068</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>185</v>
+      </c>
+      <c r="R44" t="s">
+        <v>186</v>
+      </c>
+      <c r="S44" t="s">
+        <v>186</v>
+      </c>
+      <c r="T44" t="s">
+        <v>187</v>
+      </c>
+      <c r="U44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
         <v>11.017161</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" t="s">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s">
+        <v>183</v>
+      </c>
+      <c r="O45" t="s">
+        <v>184</v>
+      </c>
+      <c r="P45">
+        <v>68378068</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>185</v>
+      </c>
+      <c r="R45" t="s">
+        <v>186</v>
+      </c>
+      <c r="S45" t="s">
+        <v>186</v>
+      </c>
+      <c r="T45" t="s">
+        <v>187</v>
+      </c>
+      <c r="U45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46">
+        <v>2013</v>
+      </c>
+      <c r="B46" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3">
-        <v>68378068</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
-        <v>2011</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>11.08</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4">
-        <v>68378068</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>2011</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>13.296</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>12.699</v>
+      </c>
+      <c r="E46" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5">
-        <v>68378068</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46" t="s">
+        <v>175</v>
+      </c>
+      <c r="L46" t="s">
+        <v>183</v>
+      </c>
+      <c r="O46" t="s">
+        <v>184</v>
+      </c>
+      <c r="P46">
+        <v>68378068</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>185</v>
+      </c>
+      <c r="R46" t="s">
+        <v>186</v>
+      </c>
+      <c r="S46" t="s">
+        <v>186</v>
+      </c>
+      <c r="T46" t="s">
+        <v>187</v>
+      </c>
+      <c r="U46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>11.017161</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" t="s">
+        <v>176</v>
+      </c>
+      <c r="L47" t="s">
+        <v>183</v>
+      </c>
+      <c r="O47" t="s">
+        <v>184</v>
+      </c>
+      <c r="P47">
+        <v>68378068</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>185</v>
+      </c>
+      <c r="R47" t="s">
+        <v>186</v>
+      </c>
+      <c r="S47" t="s">
+        <v>186</v>
+      </c>
+      <c r="T47" t="s">
+        <v>187</v>
+      </c>
+      <c r="U47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48">
+        <v>2013</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>58.370998</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" t="s">
+        <v>177</v>
+      </c>
+      <c r="L48" t="s">
+        <v>183</v>
+      </c>
+      <c r="O48" t="s">
+        <v>184</v>
+      </c>
+      <c r="P48">
+        <v>68378068</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>185</v>
+      </c>
+      <c r="R48" t="s">
+        <v>186</v>
+      </c>
+      <c r="S48" t="s">
+        <v>186</v>
+      </c>
+      <c r="T48" t="s">
+        <v>187</v>
+      </c>
+      <c r="U48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49">
         <v>2012</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>124.571</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B49" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6">
-        <v>68378068</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
-        <v>2013</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>12.699</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7">
-        <v>68378068</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" t="s">
-        <v>52</v>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>13.172</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" t="s">
+        <v>130</v>
+      </c>
+      <c r="K49" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" t="s">
+        <v>183</v>
+      </c>
+      <c r="O49" t="s">
+        <v>184</v>
+      </c>
+      <c r="P49">
+        <v>68378068</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>185</v>
+      </c>
+      <c r="R49" t="s">
+        <v>186</v>
+      </c>
+      <c r="S49" t="s">
+        <v>186</v>
+      </c>
+      <c r="T49" t="s">
+        <v>187</v>
+      </c>
+      <c r="U49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50">
+        <v>2015</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>9.0322981</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" t="s">
+        <v>179</v>
+      </c>
+      <c r="L50" t="s">
+        <v>183</v>
+      </c>
+      <c r="O50" t="s">
+        <v>184</v>
+      </c>
+      <c r="P50">
+        <v>68378068</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>185</v>
+      </c>
+      <c r="R50" t="s">
+        <v>186</v>
+      </c>
+      <c r="S50" t="s">
+        <v>186</v>
+      </c>
+      <c r="T50" t="s">
+        <v>187</v>
+      </c>
+      <c r="U50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51">
+        <v>2015</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>9.0322981</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s">
+        <v>180</v>
+      </c>
+      <c r="L51" t="s">
+        <v>183</v>
+      </c>
+      <c r="O51" t="s">
+        <v>184</v>
+      </c>
+      <c r="P51">
+        <v>68378068</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>185</v>
+      </c>
+      <c r="R51" t="s">
+        <v>186</v>
+      </c>
+      <c r="S51" t="s">
+        <v>186</v>
+      </c>
+      <c r="T51" t="s">
+        <v>187</v>
+      </c>
+      <c r="U51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52">
+        <v>2014</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>14.933487</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52" t="s">
+        <v>183</v>
+      </c>
+      <c r="O52" t="s">
+        <v>184</v>
+      </c>
+      <c r="P52">
+        <v>68378068</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>185</v>
+      </c>
+      <c r="R52" t="s">
+        <v>186</v>
+      </c>
+      <c r="S52" t="s">
+        <v>186</v>
+      </c>
+      <c r="T52" t="s">
+        <v>187</v>
+      </c>
+      <c r="U52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53">
+        <v>2015</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>9.0322981</v>
+      </c>
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" t="s">
+        <v>182</v>
+      </c>
+      <c r="L53" t="s">
+        <v>183</v>
+      </c>
+      <c r="O53" t="s">
+        <v>184</v>
+      </c>
+      <c r="P53">
+        <v>68378068</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>185</v>
+      </c>
+      <c r="R53" t="s">
+        <v>186</v>
+      </c>
+      <c r="S53" t="s">
+        <v>186</v>
+      </c>
+      <c r="T53" t="s">
+        <v>187</v>
+      </c>
+      <c r="U53" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
